--- a/getto_format.xlsx
+++ b/getto_format.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/bluffs_getto/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25767E29-85D0-FD4B-AC31-F067D6C1E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="35840" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,18 +136,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Ropes, Workcrew</t>
-  </si>
-  <si>
-    <t>Lifegaurd, Workcrew</t>
-  </si>
-  <si>
-    <t>Workcrew</t>
-  </si>
-  <si>
-    <t>Male, Workcrew</t>
-  </si>
-  <si>
     <t xml:space="preserve">Male </t>
   </si>
   <si>
@@ -149,13 +143,25 @@
   </si>
   <si>
     <t>Leadership, Male</t>
+  </si>
+  <si>
+    <t>Ropes, Non-program</t>
+  </si>
+  <si>
+    <t>Lifegaurd, Non-program</t>
+  </si>
+  <si>
+    <t>Non-program</t>
+  </si>
+  <si>
+    <t>Male, Non-program</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +224,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +276,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -296,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,9 +345,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,14 +521,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="271" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -555,7 +573,7 @@
         <v>800</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -573,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -602,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -631,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -660,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -692,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -724,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -753,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>1200</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -785,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -796,7 +814,7 @@
         <v>1200</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -817,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -828,7 +846,7 @@
         <v>1045</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -849,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -860,7 +878,7 @@
         <v>1045</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -881,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -892,7 +910,7 @@
         <v>1030</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -913,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -924,7 +942,7 @@
         <v>1030</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -945,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -956,7 +974,7 @@
         <v>1145</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -977,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -988,7 +1006,7 @@
         <v>1145</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1009,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>1130</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1041,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1070,7 @@
         <v>1130</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1073,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>1530</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1134,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>1530</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1166,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1195,7 @@
         <v>1345</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1198,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1227,7 @@
         <v>1345</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1230,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>1515</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1262,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>1515</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1294,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1422,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1544,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1788,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1820,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1884,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1948,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>1700</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -2012,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2044,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2055,7 +2073,7 @@
         <v>1700</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -2076,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>1700</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -2108,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>1700</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -2140,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2329,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2358,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2398,7 +2416,7 @@
         <v>2345</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -2419,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2430,7 +2448,7 @@
         <v>2345</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
